--- a/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 Døgn August 2025.xlsx
+++ b/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 Døgn August 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\4. Avdeling MHV\Luftovervåkning\Prosjekter\Rådata til interaktivt dashbord TFK (2025)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D74BBE6F-066C-4435-9BA2-4C792DCF5BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D74BBE6F-066C-4435-9BA2-4C792DCF5BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D9DA50C-25BB-431E-A593-7A3D61819EC0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2A55EB1-6864-4860-A55B-1F45160AF77F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="20055" windowHeight="20985" xr2:uid="{B2A55EB1-6864-4860-A55B-1F45160AF77F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsserie_2723-2724-1230-1231-2" sheetId="1" r:id="rId1"/>
@@ -919,13 +919,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CA48DA-7E34-4A97-B0FE-C350AD75B1AD}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
